--- a/Examples/Ratios.xlsx
+++ b/Examples/Ratios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367490E-617B-428B-A213-9260E039D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Symbol">Ratios!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>EV/EBITDA</t>
   </si>
@@ -135,15 +138,6 @@
     <t>P/CF</t>
   </si>
   <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>Payout Ratio</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
     <t>TTM</t>
   </si>
   <si>
@@ -180,15 +174,6 @@
     <t>CashRatio</t>
   </si>
   <si>
-    <t>PayoutRatio</t>
-  </si>
-  <si>
-    <t>DividendYield</t>
-  </si>
-  <si>
-    <t>TrailingP/E</t>
-  </si>
-  <si>
     <t>DebtToAsset</t>
   </si>
   <si>
@@ -253,12 +238,15 @@
   </si>
   <si>
     <t>Payables Turnover</t>
+  </si>
+  <si>
+    <t>MSFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -342,21 +330,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="rtdsrv_58e8f75e234d450884453b31d2e85596">
-      <tp>
-        <v>-2</v>
-        <stp/>
-        <stp>f68b8257-dc9c-4841-812a-26393f237c45</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -433,6 +406,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,458 +650,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B4,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" cm="1">
+        <f t="array" ref="C4">_xll.xlquoteRatios(Symbol,B4,$C$3)</f>
+        <v>8.8852408715991604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B5,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" cm="1">
+        <f t="array" ref="C5">_xll.xlquoteRatios(Symbol,B5,$C$3)</f>
+        <v>10.3958741343351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" cm="1">
+        <f t="array" ref="C6">_xll.xlquoteRatios(Symbol,B6,$C$3)</f>
+        <v>20.575989987798302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B6,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B7,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" cm="1">
+        <f t="array" ref="C7">_xll.xlquoteRatios(Symbol,B7,$C$3)</f>
+        <v>25.854651735946899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B8,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" cm="1">
+        <f t="array" ref="C8">_xll.xlquoteRatios(Symbol,B8,$C$3)</f>
+        <v>1.33858128050633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="e">
-        <f>_xll.xlquoteRatios(Symbol,B9,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" cm="1">
+        <f t="array" ref="C9">_xll.xlquoteRatios(Symbol,B9,$C$3)</f>
+        <v>18.266799139110901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="e" cm="1">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" cm="1">
         <f t="array" ref="C10">_xll.xlquoteRatios(Symbol,B10,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.26186362127956597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="e" cm="1">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" cm="1">
         <f t="array" ref="C11">_xll.xlquoteRatios(Symbol,B11,$C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.5851308517090299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" cm="1">
         <f t="array" ref="C12">_xll.xlquoteRatios(Symbol,B12,$C$3)</f>
-        <v>0.15356340351469699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.84018583574592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" cm="1">
         <f t="array" ref="C13">_xll.xlquoteRatios(Symbol,B13,$C$3)</f>
-        <v>0.709407593095297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56.2197956420042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" cm="1">
         <f t="array" ref="C14">_xll.xlquoteRatios(Symbol,B14,$C$3)</f>
-        <v>0.87935602862672302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24.1687352612635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" cm="1">
         <f t="array" ref="C15">_xll.xlquoteRatios(Symbol,B15,$C$3)</f>
-        <v>56.400204905560898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94.053074965868205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" cm="1">
         <f t="array" ref="C16">_xll.xlquoteRatios(Symbol,B16,$C$3)</f>
-        <v>8.0756980666171607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.873865149853799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" cm="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" cm="1">
         <f t="array" ref="C17">_xll.xlquoteRatios(Symbol,B17,$C$3)</f>
-        <v>104.685277303105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.68260002462144498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" cm="1">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" cm="1">
         <f t="array" ref="C18">_xll.xlquoteRatios(Symbol,B18,$C$3)</f>
-        <v>-46.293804381118399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.41690508432845003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" cm="1">
         <f t="array" ref="C19">_xll.xlquoteRatios(Symbol,B19,$C$3)</f>
-        <v>0.43309630561360102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.34366120891296298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" cm="1">
         <f t="array" ref="C20">_xll.xlquoteRatios(Symbol,B20,$C$3)</f>
-        <v>0.302887443955286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.17666698126563199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" cm="1">
         <f t="array" ref="C21">_xll.xlquoteRatios(Symbol,B21,$C$3)</f>
-        <v>0.25309640705199699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.19397471816423201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" cm="1">
         <f t="array" ref="C22">_xll.xlquoteRatios(Symbol,B22,$C$3)</f>
-        <v>0.16204461684424401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.42102310260888398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" cm="1">
         <f t="array" ref="C23">_xll.xlquoteRatios(Symbol,B23,$C$3)</f>
-        <v>0.28292440929256901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.31080966978101698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" cm="1">
+      <c r="C24" s="1" cm="1">
         <f t="array" ref="C24">_xll.xlquoteRatios(Symbol,B24,$C$3)</f>
-        <v>1.60901213171577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.51758277188535295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2" cm="1">
+      <c r="C25" s="1" cm="1">
         <f t="array" ref="C25">_xll.xlquoteRatios(Symbol,B25,$C$3)</f>
-        <v>0.60087134570590595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0728944608967199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" cm="1">
         <f t="array" ref="C26">_xll.xlquoteRatios(Symbol,B26,$C$3)</f>
-        <v>0.85635355983614703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.24732870771899401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" cm="1">
         <f t="array" ref="C27">_xll.xlquoteRatios(Symbol,B27,$C$3)</f>
-        <v>5.9615369434796301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.257782833293421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" cm="1">
         <f t="array" ref="C28">_xll.xlquoteRatios(Symbol,B28,$C$3)</f>
-        <v>0.66135359651409098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41.829545454545503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" cm="1">
         <f t="array" ref="C29">_xll.xlquoteRatios(Symbol,B29,$C$3)</f>
-        <v>0.70322301029043999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
+        <v>0.564435883752474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="1" cm="1">
         <f t="array" ref="C30">_xll.xlquoteRatios(Symbol,B30,$C$3)</f>
-        <v>40.7495735243944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
+        <v>2.2468025314214901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C31" s="1" cm="1">
         <f t="array" ref="C31">_xll.xlquoteRatios(Symbol,B31,$C$3)</f>
-        <v>1.11785233377273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.49237507592954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1">
-        <f>_xll.xlquoteRatios(Symbol,B32,$C$3)</f>
-        <v>9.3626801529073802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" cm="1">
+        <f t="array" ref="C32">_xll.xlquoteRatios(Symbol,B32,$C$3)</f>
+        <v>15.102155576382399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" cm="1">
         <f t="array" ref="C33">_xll.xlquoteRatios(Symbol,B33,$C$3)</f>
-        <v>6.4716076938226204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>3.88078752483593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="1" cm="1">
         <f t="array" ref="C34">_xll.xlquoteRatios(Symbol,B34,$C$3)</f>
-        <v>45.197331176708502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>1.45471284960685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C35" s="1" cm="1">
         <f t="array" ref="C35">_xll.xlquoteRatios(Symbol,B35,$C$3)</f>
-        <v>3.4866411916088298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26.999076354679801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" cm="1">
         <f t="array" ref="C36">_xll.xlquoteRatios(Symbol,B36,$C$3)</f>
-        <v>1.0173400294830499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.60002463155302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" cm="1">
         <f t="array" ref="C37">_xll.xlquoteRatios(Symbol,B37,$C$3)</f>
-        <v>5.7864045476077699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="1" cm="1">
-        <f t="array" ref="C38">_xll.xlquoteRatios(Symbol,B38,$C$3)</f>
-        <v>11.4074523720583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="1" cm="1">
-        <f t="array" ref="C39">_xll.xlquoteRatios(Symbol,B39,$C$3)</f>
-        <v>11.4074523710888</v>
+        <v>3.6000246310859998</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Ratios.xlsx
+++ b/Examples/Ratios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367490E-617B-428B-A213-9260E039D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B6A9D8-1EDE-4595-B960-575A7DC2092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" cm="1">
-        <f t="array" ref="C4">_xll.xlquoteRatios(Symbol,B4,$C$3)</f>
-        <v>8.8852408715991604</v>
+        <f t="array" ref="C4">_xll.xlquoteRatios(Symbol,B4,$C$3,"FMP")</f>
+        <v>8.2595248553490102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -692,8 +692,8 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">_xll.xlquoteRatios(Symbol,B5,$C$3)</f>
-        <v>10.3958741343351</v>
+        <f t="array" ref="C5">_xll.xlquoteRatios(Symbol,B5,$C$3,"FMP")</f>
+        <v>9.6637763732528299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -704,8 +704,8 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" cm="1">
-        <f t="array" ref="C6">_xll.xlquoteRatios(Symbol,B6,$C$3)</f>
-        <v>20.575989987798302</v>
+        <f t="array" ref="C6">_xll.xlquoteRatios(Symbol,B6,$C$3,"FMP")</f>
+        <v>19.126988585177799</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -716,8 +716,8 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" cm="1">
-        <f t="array" ref="C7">_xll.xlquoteRatios(Symbol,B7,$C$3)</f>
-        <v>25.854651735946899</v>
+        <f t="array" ref="C7">_xll.xlquoteRatios(Symbol,B7,$C$3,"FMP")</f>
+        <v>24.033916663084401</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -728,8 +728,8 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">_xll.xlquoteRatios(Symbol,B8,$C$3)</f>
-        <v>1.33858128050633</v>
+        <f t="array" ref="C8">_xll.xlquoteRatios(Symbol,B8,$C$3,"FMP")</f>
+        <v>1.2443157379746801</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -740,8 +740,8 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">_xll.xlquoteRatios(Symbol,B9,$C$3)</f>
-        <v>18.266799139110901</v>
+        <f t="array" ref="C9">_xll.xlquoteRatios(Symbol,B9,$C$3,"FMP")</f>
+        <v>17.0065361117172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -752,7 +752,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">_xll.xlquoteRatios(Symbol,B10,$C$3)</f>
+        <f t="array" ref="C10">_xll.xlquoteRatios(Symbol,B10,$C$3,"FMP")</f>
         <v>0.26186362127956597</v>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" cm="1">
-        <f t="array" ref="C11">_xll.xlquoteRatios(Symbol,B11,$C$3)</f>
+        <f t="array" ref="C11">_xll.xlquoteRatios(Symbol,B11,$C$3,"FMP")</f>
         <v>1.5851308517090299</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">_xll.xlquoteRatios(Symbol,B12,$C$3)</f>
+        <f t="array" ref="C12">_xll.xlquoteRatios(Symbol,B12,$C$3,"FMP")</f>
         <v>1.84018583574592</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">_xll.xlquoteRatios(Symbol,B13,$C$3)</f>
+        <f t="array" ref="C13">_xll.xlquoteRatios(Symbol,B13,$C$3,"FMP")</f>
         <v>56.2197956420042</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">_xll.xlquoteRatios(Symbol,B14,$C$3)</f>
+        <f t="array" ref="C14">_xll.xlquoteRatios(Symbol,B14,$C$3,"FMP")</f>
         <v>24.1687352612635</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" cm="1">
-        <f t="array" ref="C15">_xll.xlquoteRatios(Symbol,B15,$C$3)</f>
+        <f t="array" ref="C15">_xll.xlquoteRatios(Symbol,B15,$C$3,"FMP")</f>
         <v>94.053074965868205</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" cm="1">
-        <f t="array" ref="C16">_xll.xlquoteRatios(Symbol,B16,$C$3)</f>
+        <f t="array" ref="C16">_xll.xlquoteRatios(Symbol,B16,$C$3,"FMP")</f>
         <v>-31.873865149853799</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="2" cm="1">
-        <f t="array" ref="C17">_xll.xlquoteRatios(Symbol,B17,$C$3)</f>
+        <f t="array" ref="C17">_xll.xlquoteRatios(Symbol,B17,$C$3,"FMP")</f>
         <v>0.68260002462144498</v>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" cm="1">
-        <f t="array" ref="C18">_xll.xlquoteRatios(Symbol,B18,$C$3)</f>
+        <f t="array" ref="C18">_xll.xlquoteRatios(Symbol,B18,$C$3,"FMP")</f>
         <v>0.41690508432845003</v>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" cm="1">
-        <f t="array" ref="C19">_xll.xlquoteRatios(Symbol,B19,$C$3)</f>
+        <f t="array" ref="C19">_xll.xlquoteRatios(Symbol,B19,$C$3,"FMP")</f>
         <v>0.34366120891296298</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="2" cm="1">
-        <f t="array" ref="C20">_xll.xlquoteRatios(Symbol,B20,$C$3)</f>
+        <f t="array" ref="C20">_xll.xlquoteRatios(Symbol,B20,$C$3,"FMP")</f>
         <v>0.17666698126563199</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" cm="1">
-        <f t="array" ref="C21">_xll.xlquoteRatios(Symbol,B21,$C$3)</f>
+        <f t="array" ref="C21">_xll.xlquoteRatios(Symbol,B21,$C$3,"FMP")</f>
         <v>0.19397471816423201</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" cm="1">
-        <f t="array" ref="C22">_xll.xlquoteRatios(Symbol,B22,$C$3)</f>
+        <f t="array" ref="C22">_xll.xlquoteRatios(Symbol,B22,$C$3,"FMP")</f>
         <v>0.42102310260888398</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" cm="1">
-        <f t="array" ref="C23">_xll.xlquoteRatios(Symbol,B23,$C$3)</f>
+        <f t="array" ref="C23">_xll.xlquoteRatios(Symbol,B23,$C$3,"FMP")</f>
         <v>0.31080966978101698</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" cm="1">
-        <f t="array" ref="C24">_xll.xlquoteRatios(Symbol,B24,$C$3)</f>
+        <f t="array" ref="C24">_xll.xlquoteRatios(Symbol,B24,$C$3,"FMP")</f>
         <v>0.51758277188535295</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25">_xll.xlquoteRatios(Symbol,B25,$C$3)</f>
+        <f t="array" ref="C25">_xll.xlquoteRatios(Symbol,B25,$C$3,"FMP")</f>
         <v>1.0728944608967199</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="1" cm="1">
-        <f t="array" ref="C26">_xll.xlquoteRatios(Symbol,B26,$C$3)</f>
+        <f t="array" ref="C26">_xll.xlquoteRatios(Symbol,B26,$C$3,"FMP")</f>
         <v>0.24732870771899401</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="1" cm="1">
-        <f t="array" ref="C27">_xll.xlquoteRatios(Symbol,B27,$C$3)</f>
+        <f t="array" ref="C27">_xll.xlquoteRatios(Symbol,B27,$C$3,"FMP")</f>
         <v>0.257782833293421</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" cm="1">
-        <f t="array" ref="C28">_xll.xlquoteRatios(Symbol,B28,$C$3)</f>
+        <f t="array" ref="C28">_xll.xlquoteRatios(Symbol,B28,$C$3,"FMP")</f>
         <v>41.829545454545503</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" cm="1">
-        <f t="array" ref="C29">_xll.xlquoteRatios(Symbol,B29,$C$3)</f>
+        <f t="array" ref="C29">_xll.xlquoteRatios(Symbol,B29,$C$3,"FMP")</f>
         <v>0.564435883752474</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="1" cm="1">
-        <f t="array" ref="C30">_xll.xlquoteRatios(Symbol,B30,$C$3)</f>
+        <f t="array" ref="C30">_xll.xlquoteRatios(Symbol,B30,$C$3,"FMP")</f>
         <v>2.2468025314214901</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="1" cm="1">
-        <f t="array" ref="C31">_xll.xlquoteRatios(Symbol,B31,$C$3)</f>
+        <f t="array" ref="C31">_xll.xlquoteRatios(Symbol,B31,$C$3,"FMP")</f>
         <v>6.49237507592954</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="1" cm="1">
-        <f t="array" ref="C32">_xll.xlquoteRatios(Symbol,B32,$C$3)</f>
+        <f t="array" ref="C32">_xll.xlquoteRatios(Symbol,B32,$C$3,"FMP")</f>
         <v>15.102155576382399</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" cm="1">
-        <f t="array" ref="C33">_xll.xlquoteRatios(Symbol,B33,$C$3)</f>
+        <f t="array" ref="C33">_xll.xlquoteRatios(Symbol,B33,$C$3,"FMP")</f>
         <v>3.88078752483593</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="1" cm="1">
-        <f t="array" ref="C34">_xll.xlquoteRatios(Symbol,B34,$C$3)</f>
+        <f t="array" ref="C34">_xll.xlquoteRatios(Symbol,B34,$C$3,"FMP")</f>
         <v>1.45471284960685</v>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="1" cm="1">
-        <f t="array" ref="C35">_xll.xlquoteRatios(Symbol,B35,$C$3)</f>
+        <f t="array" ref="C35">_xll.xlquoteRatios(Symbol,B35,$C$3,"FMP")</f>
         <v>26.999076354679801</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1" cm="1">
-        <f t="array" ref="C36">_xll.xlquoteRatios(Symbol,B36,$C$3)</f>
+        <f t="array" ref="C36">_xll.xlquoteRatios(Symbol,B36,$C$3,"FMP")</f>
         <v>3.60002463155302</v>
       </c>
     </row>
@@ -1076,11 +1076,14 @@
         <v>47</v>
       </c>
       <c r="C37" s="1" cm="1">
-        <f t="array" ref="C37">_xll.xlquoteRatios(Symbol,B37,$C$3)</f>
-        <v>3.6000246310859998</v>
+        <f t="array" ref="C37">_xll.xlquoteRatios(Symbol,B37,$C$3,"FMP")</f>
+        <v>3.6000246311776301</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{8F664094-38AA-4C22-9ECC-D7C4B7E75580}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>